--- a/Resources/2013/Advanced_Percentile_2013.xlsx
+++ b/Resources/2013/Advanced_Percentile_2013.xlsx
@@ -1726,7 +1726,7 @@
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Chris Andersen</t>
@@ -1789,7 +1789,7 @@
     <t>Greg Smith</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Brandon Jennings</t>
@@ -1996,7 +1996,7 @@
     <t>Mike Scott</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Bradley Beal</t>
@@ -2839,7 +2839,7 @@
     <t>Kendall Marshall</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Doron Lamb</t>
